--- a/teaching/traditional_assets/database/data/bermuda/bermuda_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_drugs_biotechnology.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-172.7</v>
+        <v>-139.5</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,70 +615,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>68.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="V2">
-        <v>0.1139638893490144</v>
+        <v>0.07141075733643694</v>
       </c>
       <c r="W2">
-        <v>-0.5415490749451238</v>
+        <v>-0.5537911869789599</v>
       </c>
       <c r="X2">
-        <v>0.1048065880375113</v>
+        <v>0.06308892237090165</v>
       </c>
       <c r="Y2">
-        <v>-0.6463556629826351</v>
+        <v>-0.6168801093498616</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.7149243669009278</v>
+        <v>-0.7305435932017434</v>
       </c>
       <c r="AB2">
-        <v>0.1042392887375304</v>
+        <v>0.06302289274102885</v>
       </c>
       <c r="AC2">
-        <v>-0.8191636556384582</v>
+        <v>-0.7935664859427722</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.788610315782876</v>
+        <v>2.67172783334651</v>
       </c>
       <c r="AF2">
-        <v>6.788610315782876</v>
+        <v>2.67172783334651</v>
       </c>
       <c r="AG2">
-        <v>-62.01138968421712</v>
+        <v>-83.2282721666535</v>
       </c>
       <c r="AH2">
-        <v>0.01111996227459736</v>
+        <v>0.002216150040402937</v>
       </c>
       <c r="AI2">
-        <v>0.02624240126960354</v>
+        <v>0.007397389184845915</v>
       </c>
       <c r="AJ2">
-        <v>-0.1144779279152038</v>
+        <v>-0.07433274423004928</v>
       </c>
       <c r="AK2">
-        <v>-0.3265671889487884</v>
+        <v>-0.3023495105063644</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-6.65</v>
+        <v>-2.23</v>
       </c>
       <c r="AN2">
-        <v>-0.01681520094165125</v>
+        <v>-0</v>
       </c>
       <c r="AP2">
-        <v>0.3475779927370501</v>
+        <v>0.626813316513432</v>
       </c>
       <c r="AQ2">
-        <v>27.29323308270677</v>
+        <v>61.43497757847533</v>
       </c>
     </row>
     <row r="3">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-172.7</v>
+        <v>-139.5</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -722,70 +722,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>68.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="V3">
-        <v>0.1139638893490144</v>
+        <v>0.07141075733643694</v>
       </c>
       <c r="W3">
-        <v>-0.5415490749451238</v>
+        <v>-0.5537911869789599</v>
       </c>
       <c r="X3">
-        <v>0.1048065880375113</v>
+        <v>0.06308892237090165</v>
       </c>
       <c r="Y3">
-        <v>-0.6463556629826351</v>
+        <v>-0.6168801093498616</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.7149243669009278</v>
+        <v>-0.7305435932017434</v>
       </c>
       <c r="AB3">
-        <v>0.1042392887375304</v>
+        <v>0.06302289274102885</v>
       </c>
       <c r="AC3">
-        <v>-0.8191636556384582</v>
+        <v>-0.7935664859427722</v>
       </c>
       <c r="AD3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.788610315782876</v>
+        <v>2.67172783334651</v>
       </c>
       <c r="AF3">
-        <v>6.788610315782876</v>
+        <v>2.67172783334651</v>
       </c>
       <c r="AG3">
-        <v>-62.01138968421712</v>
+        <v>-83.2282721666535</v>
       </c>
       <c r="AH3">
-        <v>0.01111996227459736</v>
+        <v>0.002216150040402937</v>
       </c>
       <c r="AI3">
-        <v>0.02624240126960354</v>
+        <v>0.007397389184845915</v>
       </c>
       <c r="AJ3">
-        <v>-0.1144779279152038</v>
+        <v>-0.07433274423004928</v>
       </c>
       <c r="AK3">
-        <v>-0.3265671889487884</v>
+        <v>-0.3023495105063644</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-6.65</v>
+        <v>-2.23</v>
       </c>
       <c r="AN3">
-        <v>-0.01681520094165125</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>0.3475779927370501</v>
+        <v>0.626813316513432</v>
       </c>
       <c r="AQ3">
-        <v>27.29323308270677</v>
+        <v>61.43497757847533</v>
       </c>
     </row>
   </sheetData>
